--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t xml:space="preserve">VECTORIZER</t>
   </si>
@@ -60,6 +60,9 @@
     <t xml:space="preserve">C=0.1
 degree=2
 Kernel=rbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TF-IDF</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,10 +206,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -234,10 +233,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,35 +302,65 @@
         <v>0.2027</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="10"/>
+    <row r="5" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.1213</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.1494</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0.0348</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0.1865</v>
+      </c>
     </row>
     <row r="7" s="9" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>-0.2347</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.0489</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11" t="n">
-        <v>0.1213</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>0.1494</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>0.0348</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0.1865</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -167,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,19 +180,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,16 +196,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -236,7 +232,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,7 +243,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -260,103 +256,115 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="9" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="5" t="n">
         <v>-0.0379</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="5" t="n">
         <v>0.1657</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="5" t="n">
         <v>0.0411</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="5" t="n">
         <v>0.2027</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="8" t="n">
         <v>0.1213</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="7" t="n">
         <v>0.1494</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="7" t="n">
         <v>0.0348</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="7" t="n">
         <v>0.1865</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="7" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="8" t="n">
         <v>-0.2347</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="7" t="n">
         <v>0.182</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="7" t="n">
         <v>0.0489</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="7" t="n">
         <v>0.221</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" s="10" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>0.0823</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>0.1523</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0.1906</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t xml:space="preserve">VECTORIZER</t>
   </si>
@@ -63,6 +63,17 @@
   </si>
   <si>
     <t xml:space="preserve">TF-IDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr=2e-5
+loss=MSE
+optimizer=AdamW</t>
   </si>
 </sst>
 </file>
@@ -232,7 +243,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -344,7 +355,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="7" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -357,14 +368,37 @@
       <c r="D9" s="7" t="n">
         <v>0.0823</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="7" t="n">
         <v>0.1523</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="7" t="n">
         <v>0.0363</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="7" t="n">
         <v>0.1906</v>
+      </c>
+    </row>
+    <row r="11" s="10" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>0.1465</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0.1924</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t xml:space="preserve">VECTORIZER</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">lr=2e-5
 loss=MSE
 optimizer=AdamW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finetuned</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,10 +220,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -243,7 +242,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -378,7 +377,7 @@
         <v>0.1906</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="7" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -391,14 +390,37 @@
       <c r="D11" s="7" t="n">
         <v>0.0649</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="7" t="n">
         <v>0.1465</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="7" t="n">
         <v>0.037</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="7" t="n">
         <v>0.1924</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>0.1345</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>0.0294</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>0.1715</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t xml:space="preserve">VECTORIZER</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">RMSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEAR. CORR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEAR. CORR.</t>
   </si>
   <si>
     <t xml:space="preserve">Bag-Of-Words</t>
@@ -181,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,11 +197,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -220,6 +226,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -239,10 +249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -251,6 +261,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.42"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -274,6 +286,12 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -285,15 +303,15 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" s="7" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="7" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>-0.0379</v>
@@ -307,16 +325,22 @@
       <c r="G3" s="5" t="n">
         <v>0.2027</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="7" t="n">
+        <v>0.2408</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>0.2657</v>
+      </c>
+    </row>
+    <row r="5" s="10" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>0.1213</v>
@@ -330,16 +354,22 @@
       <c r="G5" s="7" t="n">
         <v>0.1865</v>
       </c>
-    </row>
-    <row r="7" s="7" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>-0.2347</v>
@@ -353,16 +383,22 @@
       <c r="G7" s="7" t="n">
         <v>0.221</v>
       </c>
-    </row>
-    <row r="9" s="7" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="7" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0.2354</v>
+      </c>
+    </row>
+    <row r="9" s="7" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>0.0823</v>
@@ -376,16 +412,22 @@
       <c r="G9" s="7" t="n">
         <v>0.1906</v>
       </c>
+      <c r="H9" s="7" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0.2683</v>
+      </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>0.0649</v>
@@ -402,13 +444,13 @@
     </row>
     <row r="13" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>0.2566</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -252,7 +252,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -261,8 +261,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.42"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,7 +332,7 @@
         <v>0.2657</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="7" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -354,10 +354,10 @@
       <c r="G5" s="7" t="n">
         <v>0.1865</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="7" t="n">
         <v>0.35</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="7" t="n">
         <v>0.317</v>
       </c>
     </row>
@@ -441,8 +441,14 @@
       <c r="G11" s="7" t="n">
         <v>0.1924</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="7" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>0.3168</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -463,6 +469,12 @@
       </c>
       <c r="G13" s="7" t="n">
         <v>0.1715</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>0.5079</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>0.4513</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t xml:space="preserve">VECTORIZER</t>
   </si>
@@ -83,6 +83,25 @@
   </si>
   <si>
     <t xml:space="preserve">Finetuned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERT CUSTOM 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr=2e-5
+loss=MSE
+optimizer=AdamW
+layers={bert,768,512,32,1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERT CUSTOM 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr=2e-5
+loss=MSE
+optimizer=AdamW
+layers={bert,768,512,32,1}
+text=augmented</t>
   </si>
 </sst>
 </file>
@@ -252,14 +271,14 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.42"/>
@@ -448,7 +467,7 @@
         <v>0.3168</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="7" customFormat="true" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -475,6 +494,64 @@
       </c>
       <c r="I13" s="7" t="n">
         <v>0.4513</v>
+      </c>
+    </row>
+    <row r="15" s="7" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0.1327</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>0.1718</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>0.4639</v>
+      </c>
+    </row>
+    <row r="17" s="10" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>0.1345</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>0.0324</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>0.1799</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0.5235</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>0.4698</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
